--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +540,40 @@
         <v>1.805913</v>
       </c>
       <c r="I2">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J2">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.21127</v>
+        <v>0.261293</v>
       </c>
       <c r="N2">
-        <v>0.63381</v>
+        <v>0.783879</v>
       </c>
       <c r="O2">
-        <v>0.07354932682191852</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P2">
-        <v>0.07354932682191852</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q2">
-        <v>0.12717841317</v>
+        <v>0.157290808503</v>
       </c>
       <c r="R2">
-        <v>1.14460571853</v>
+        <v>1.415617276527</v>
       </c>
       <c r="S2">
-        <v>0.04479331317621082</v>
+        <v>0.003472187344593603</v>
       </c>
       <c r="T2">
-        <v>0.04479331317621081</v>
+        <v>0.003472187344593603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>1.805913</v>
       </c>
       <c r="I3">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J3">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7775033333333332</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N3">
         <v>2.33251</v>
       </c>
       <c r="O3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q3">
         <v>0.46803445907</v>
       </c>
       <c r="R3">
-        <v>4.21231013163</v>
+        <v>4.212310131630001</v>
       </c>
       <c r="S3">
-        <v>0.1648456965283658</v>
+        <v>0.01033183910161903</v>
       </c>
       <c r="T3">
-        <v>0.1648456965283657</v>
+        <v>0.01033183910161903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +664,10 @@
         <v>1.805913</v>
       </c>
       <c r="I4">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J4">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.860182</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N4">
-        <v>5.580546</v>
+        <v>18.543664</v>
       </c>
       <c r="O4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q4">
-        <v>1.119775618722</v>
+        <v>3.720915987248</v>
       </c>
       <c r="R4">
-        <v>10.077980568498</v>
+        <v>33.488243885232</v>
       </c>
       <c r="S4">
-        <v>0.3943944473458143</v>
+        <v>0.08213904883686894</v>
       </c>
       <c r="T4">
-        <v>0.3943944473458142</v>
+        <v>0.08213904883686896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.601971</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H5">
-        <v>1.805913</v>
+        <v>17.016842</v>
       </c>
       <c r="I5">
-        <v>0.6090241081970299</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J5">
-        <v>0.6090241081970298</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02353866666666667</v>
+        <v>0.261293</v>
       </c>
       <c r="N5">
-        <v>0.070616</v>
+        <v>0.783879</v>
       </c>
       <c r="O5">
-        <v>0.008194505077005093</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P5">
-        <v>0.008194505077005093</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q5">
-        <v>0.014169594712</v>
+        <v>1.482127232235333</v>
       </c>
       <c r="R5">
-        <v>0.127526352408</v>
+        <v>13.339145090118</v>
       </c>
       <c r="S5">
-        <v>0.004990651146639061</v>
+        <v>0.0327178903066476</v>
       </c>
       <c r="T5">
-        <v>0.00499065114663906</v>
+        <v>0.0327178903066476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +773,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H6">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.21127</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N6">
-        <v>0.63381</v>
+        <v>2.33251</v>
       </c>
       <c r="O6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q6">
-        <v>0.08164486895999999</v>
+        <v>4.410217125935556</v>
       </c>
       <c r="R6">
-        <v>0.7348038206399999</v>
+        <v>39.69195413342</v>
       </c>
       <c r="S6">
-        <v>0.02875601364570771</v>
+        <v>0.09735533968783268</v>
       </c>
       <c r="T6">
-        <v>0.02875601364570771</v>
+        <v>0.09735533968783271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H7">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7775033333333332</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N7">
-        <v>2.33251</v>
+        <v>18.543664</v>
       </c>
       <c r="O7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q7">
-        <v>0.3004646081599999</v>
+        <v>35.06162226545422</v>
       </c>
       <c r="R7">
-        <v>2.704181473439999</v>
+        <v>315.554600389088</v>
       </c>
       <c r="S7">
-        <v>0.1058261772277965</v>
+        <v>0.7739836947224381</v>
       </c>
       <c r="T7">
-        <v>0.1058261772277965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.386448</v>
-      </c>
-      <c r="H8">
-        <v>1.159344</v>
-      </c>
-      <c r="I8">
-        <v>0.3909758918029702</v>
-      </c>
-      <c r="J8">
-        <v>0.3909758918029702</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.860182</v>
-      </c>
-      <c r="N8">
-        <v>5.580546</v>
-      </c>
-      <c r="O8">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="P8">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="Q8">
-        <v>0.7188636135359999</v>
-      </c>
-      <c r="R8">
-        <v>6.469772521824</v>
-      </c>
-      <c r="S8">
-        <v>0.2531898469991</v>
-      </c>
-      <c r="T8">
-        <v>0.2531898469991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.386448</v>
-      </c>
-      <c r="H9">
-        <v>1.159344</v>
-      </c>
-      <c r="I9">
-        <v>0.3909758918029702</v>
-      </c>
-      <c r="J9">
-        <v>0.3909758918029702</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02353866666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.070616</v>
-      </c>
-      <c r="O9">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="P9">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="Q9">
-        <v>0.009096470655999998</v>
-      </c>
-      <c r="R9">
-        <v>0.081868235904</v>
-      </c>
-      <c r="S9">
-        <v>0.003203853930366033</v>
-      </c>
-      <c r="T9">
-        <v>0.003203853930366033</v>
+        <v>0.7739836947224382</v>
       </c>
     </row>
   </sheetData>
